--- a/biology/Zoologie/Bedlington_terrier/Bedlington_terrier.xlsx
+++ b/biology/Zoologie/Bedlington_terrier/Bedlington_terrier.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 </t>
@@ -511,7 +523,9 @@
           <t>Introduction</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Bedlington terrier est une race de chien de chasse originaire de Grande-Bretagne. Il n'est plus utilisé pour chasser, mais dans son pays d'origine il participe encore à des courses de poursuite à vue sur leurre. C'est surtout un chien de compagnie, apprécié pour son caractère doux et son apparence particulière de petit agneau. Sa robe nécessite un entretien particulier avec un toilettage régulier. Il mesure environ 16 pouces (41 cm) au garrot.
 </t>
@@ -542,7 +556,9 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">À l'origine, le terrier bedlington portait  le nom de Rothbury Terrier, en l'honneur du district de Rothbury situé à la frontière de l'Angleterre. À Rothbury, des cloutiers bohémiens ont hautement prisé la race comme chasseur de divers types de gibiers, dont le blaireau. Vers 1825, un mâle Rothbury a été accouplé à une femelle bedlington donnant ainsi le terrier bedlington. Le lévrier whippet a probablement été ajouté à un moment donné afin de rendre la race plus rapide et plus sportive. D'autres sources mentionnent le Dandie Dinmont Terrier  à titre de participant à la race.
 Le terrier bedlington était utilisé comme chasseur de vermine par les mineurs de Bedlington, qui ont aussi exploité son courage en tant que chien de combat dans les mines. Les chasseurs les ont aussi utilisés comme rapporteurs. 
@@ -575,7 +591,9 @@
           <t>Caractère</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Sur les autres projets Wikimedia :
